--- a/Google, Windows для программиста.xlsx
+++ b/Google, Windows для программиста.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework_hard\Google\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013BDB52-647C-49D4-932B-8C985DC1C30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753D25B-AEBF-40A8-A718-74F29CCEEC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google Search" sheetId="2" r:id="rId1"/>
     <sheet name="Windows" sheetId="4" r:id="rId2"/>
+    <sheet name="Удобство для программиста" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Лекция</t>
   </si>
@@ -919,18 +920,41 @@
   </si>
   <si>
     <t xml:space="preserve">Чтобы разделить экран пополам и одно окно поместить с одной стороны, а с другой другое, мы можем использовать сочетание клавиш </t>
+  </si>
+  <si>
+    <t>Установка плагина для гугл хром</t>
+  </si>
+  <si>
+    <t>Темная тема в гугл хром для всех сайтов</t>
+  </si>
+  <si>
+    <t>`https://chromewebstore.google.com/detail/darkpdf/cfemcmeknmapecneeeaajnbhhgfgkfhp</t>
+  </si>
+  <si>
+    <t>`https://chromewebstore.google.com/detail/%D1%82%D0%B5%D0%BC%D0%BD%D0%B0%D1%8F-%D1%82%D0%B5%D0%BC%D0%B0/fpneimadkgmbkijjeomfgchpbjblepnp?hl=ru&amp;pli=1</t>
+  </si>
+  <si>
+    <t>Темная тема для pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,7 +1089,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1084,22 +1108,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1795,7 +1819,7 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1895,14 +1919,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1913,7 +1936,7 @@
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1924,7 +1947,7 @@
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1935,7 +1958,7 @@
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1946,7 +1969,7 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1957,7 +1980,7 @@
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1968,7 +1991,7 @@
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1979,7 +2002,7 @@
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1990,7 +2013,7 @@
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2001,7 +2024,7 @@
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2019,8 +2042,8 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2119,14 +2142,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2134,7 +2156,7 @@
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2142,7 +2164,7 @@
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2150,7 +2172,7 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2158,24 +2180,184 @@
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
+      <c r="C14" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="13" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94FEB25-E771-4165-A161-26BB5216A1BE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="55.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="56.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="48.36328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="42" style="5" customWidth="1"/>
+    <col min="8" max="8" width="45.453125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="43.54296875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="2"/>
+    <col min="11" max="11" width="39.1796875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="40.26953125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="58.6328125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="49.7265625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="2"/>
+    <col min="16" max="16" width="26.1796875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="39.7265625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="46.54296875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="42.7265625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="4"/>
+    <col min="21" max="21" width="35.08984375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="45.7265625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="71.81640625" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
